--- a/BACOMADE/DIAGRAMAS/bacomade, diccionario de datos.xlsx
+++ b/BACOMADE/DIAGRAMAS/bacomade, diccionario de datos.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\vanessa\Tecnología\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\BACOMADE\BACOMADE\DIAGRAMAS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="99">
   <si>
     <t>int</t>
   </si>
@@ -83,9 +83,6 @@
     <t>varchar(15)</t>
   </si>
   <si>
-    <t>Documento</t>
-  </si>
-  <si>
     <t>varchar(10)</t>
   </si>
   <si>
@@ -188,15 +185,6 @@
     <t>Documento_M</t>
   </si>
   <si>
-    <t>Tbl_Envío_Contraentrega</t>
-  </si>
-  <si>
-    <t>ID_Envío_C</t>
-  </si>
-  <si>
-    <t>Fecha_Envío_C</t>
-  </si>
-  <si>
     <t>La contraseña que creo el comprador para ingresar</t>
   </si>
   <si>
@@ -308,9 +296,6 @@
     <t>Datos de la secretaria de la iglesia</t>
   </si>
   <si>
-    <t xml:space="preserve">Datos sobre el envío que se le da al mendajero para que lo entregue al comprador </t>
-  </si>
-  <si>
     <t>FK - de Tbl_Iglesia</t>
   </si>
   <si>
@@ -321,6 +306,21 @@
   </si>
   <si>
     <t>FK - de Tbl_Secretaria</t>
+  </si>
+  <si>
+    <t>Documento_S</t>
+  </si>
+  <si>
+    <t>Documento_C</t>
+  </si>
+  <si>
+    <t>Documento de identidad de la secretaria</t>
+  </si>
+  <si>
+    <t>FK - de Tbl_Forma_Pago</t>
+  </si>
+  <si>
+    <t>FK - de Tbl_Envío</t>
   </si>
 </sst>
 </file>
@@ -473,7 +473,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -526,6 +526,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -537,39 +549,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="56">
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
+  <dxfs count="49">
     <dxf>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -731,22 +716,22 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabla24" displayName="Tabla24" ref="A7:E14" totalsRowShown="0" headerRowDxfId="55" dataDxfId="54">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabla24" displayName="Tabla24" ref="A7:E14" totalsRowShown="0" headerRowDxfId="48" dataDxfId="47">
   <autoFilter ref="A7:E14"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="Campo" dataDxfId="53"/>
-    <tableColumn id="2" name="Tipo" dataDxfId="52"/>
-    <tableColumn id="3" name="Permite nulos" dataDxfId="51"/>
-    <tableColumn id="4" name="Identidad" dataDxfId="50"/>
-    <tableColumn id="5" name="Descripción" dataDxfId="49"/>
+    <tableColumn id="1" name="Campo" dataDxfId="46"/>
+    <tableColumn id="2" name="Tipo" dataDxfId="45"/>
+    <tableColumn id="3" name="Permite nulos" dataDxfId="44"/>
+    <tableColumn id="4" name="Identidad" dataDxfId="43"/>
+    <tableColumn id="5" name="Descripción" dataDxfId="42"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabla245" displayName="Tabla245" ref="A18:E22" totalsRowShown="0" headerRowDxfId="48" dataDxfId="47">
-  <autoFilter ref="A18:E22"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabla245" displayName="Tabla245" ref="A18:E23" totalsRowShown="0" headerRowDxfId="41" dataDxfId="40">
+  <autoFilter ref="A18:E23"/>
   <tableColumns count="5">
     <tableColumn id="1" name="Campo" dataDxfId="14"/>
     <tableColumn id="2" name="Tipo" dataDxfId="13"/>
@@ -759,64 +744,50 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla2452" displayName="Tabla2452" ref="A26:E30" totalsRowShown="0" headerRowDxfId="46" dataDxfId="45">
-  <autoFilter ref="A26:E30"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla2452" displayName="Tabla2452" ref="A27:E31" totalsRowShown="0" headerRowDxfId="39" dataDxfId="38">
+  <autoFilter ref="A27:E31"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="Campo" dataDxfId="44"/>
-    <tableColumn id="2" name="Tipo" dataDxfId="43"/>
-    <tableColumn id="3" name="Permite nulos" dataDxfId="42"/>
-    <tableColumn id="4" name="Identidad" dataDxfId="41"/>
-    <tableColumn id="5" name="Descripción" dataDxfId="40"/>
+    <tableColumn id="1" name="Campo" dataDxfId="37"/>
+    <tableColumn id="2" name="Tipo" dataDxfId="36"/>
+    <tableColumn id="3" name="Permite nulos" dataDxfId="35"/>
+    <tableColumn id="4" name="Identidad" dataDxfId="34"/>
+    <tableColumn id="5" name="Descripción" dataDxfId="33"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Tabla246" displayName="Tabla246" ref="A34:E40" totalsRowShown="0" headerRowDxfId="39" dataDxfId="38">
-  <autoFilter ref="A34:E40"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Tabla246" displayName="Tabla246" ref="A35:E42" totalsRowShown="0" headerRowDxfId="32" dataDxfId="31">
+  <autoFilter ref="A35:E42"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="Campo" dataDxfId="24"/>
-    <tableColumn id="2" name="Tipo" dataDxfId="23"/>
-    <tableColumn id="3" name="Permite nulos" dataDxfId="22"/>
-    <tableColumn id="4" name="Identidad" dataDxfId="21"/>
-    <tableColumn id="5" name="Descripción" dataDxfId="20"/>
+    <tableColumn id="1" name="Campo" dataDxfId="4"/>
+    <tableColumn id="2" name="Tipo" dataDxfId="3"/>
+    <tableColumn id="3" name="Permite nulos" dataDxfId="2"/>
+    <tableColumn id="4" name="Identidad" dataDxfId="1"/>
+    <tableColumn id="5" name="Descripción" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Tabla2468" displayName="Tabla2468" ref="A44:E48" totalsRowShown="0" headerRowDxfId="37" dataDxfId="36">
-  <autoFilter ref="A44:E48"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Tabla2468" displayName="Tabla2468" ref="A46:E50" totalsRowShown="0" headerRowDxfId="30" dataDxfId="29">
+  <autoFilter ref="A46:E50"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="Campo" dataDxfId="35"/>
-    <tableColumn id="2" name="Tipo" dataDxfId="34"/>
-    <tableColumn id="3" name="Permite nulos" dataDxfId="33"/>
-    <tableColumn id="4" name="Identidad" dataDxfId="32"/>
-    <tableColumn id="5" name="Descripción" dataDxfId="31"/>
+    <tableColumn id="1" name="Campo" dataDxfId="28"/>
+    <tableColumn id="2" name="Tipo" dataDxfId="27"/>
+    <tableColumn id="3" name="Permite nulos" dataDxfId="26"/>
+    <tableColumn id="4" name="Identidad" dataDxfId="25"/>
+    <tableColumn id="5" name="Descripción" dataDxfId="24"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Tabla24689" displayName="Tabla24689" ref="A52:E56" totalsRowShown="0" headerRowDxfId="30" dataDxfId="29">
-  <autoFilter ref="A52:E56"/>
-  <tableColumns count="5">
-    <tableColumn id="1" name="Campo" dataDxfId="19"/>
-    <tableColumn id="2" name="Tipo" dataDxfId="18"/>
-    <tableColumn id="3" name="Permite nulos" dataDxfId="17"/>
-    <tableColumn id="4" name="Identidad" dataDxfId="16"/>
-    <tableColumn id="5" name="Descripción" dataDxfId="15"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Tabla246810" displayName="Tabla246810" ref="A60:E65" totalsRowShown="0" headerRowDxfId="28" dataDxfId="27">
-  <autoFilter ref="A60:E65"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Tabla24689" displayName="Tabla24689" ref="A54:E60" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22">
+  <autoFilter ref="A54:E60"/>
   <tableColumns count="5">
     <tableColumn id="1" name="Campo" dataDxfId="9"/>
     <tableColumn id="2" name="Tipo" dataDxfId="8"/>
@@ -828,15 +799,15 @@
 </table>
 </file>
 
-<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Tabla2468911" displayName="Tabla2468911" ref="A69:E73" totalsRowShown="0" headerRowDxfId="26" dataDxfId="25">
-  <autoFilter ref="A69:E73"/>
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Tabla246810" displayName="Tabla246810" ref="A64:E69" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20">
+  <autoFilter ref="A64:E69"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="Campo" dataDxfId="4"/>
-    <tableColumn id="2" name="Tipo" dataDxfId="3"/>
-    <tableColumn id="3" name="Permite nulos" dataDxfId="2"/>
-    <tableColumn id="4" name="Identidad" dataDxfId="1"/>
-    <tableColumn id="5" name="Descripción" dataDxfId="0"/>
+    <tableColumn id="1" name="Campo" dataDxfId="19"/>
+    <tableColumn id="2" name="Tipo" dataDxfId="18"/>
+    <tableColumn id="3" name="Permite nulos" dataDxfId="17"/>
+    <tableColumn id="4" name="Identidad" dataDxfId="16"/>
+    <tableColumn id="5" name="Descripción" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1105,10 +1076,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q73"/>
+  <dimension ref="A1:Q69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="B77" sqref="B77"/>
+    <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="H37" sqref="H37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1123,44 +1094,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="19"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="23"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="17"/>
+      <c r="B6" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="21"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
@@ -1181,7 +1152,7 @@
     </row>
     <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B8" s="11" t="s">
         <v>14</v>
@@ -1193,12 +1164,12 @@
         <v>7</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B9" s="11" t="s">
         <v>12</v>
@@ -1210,7 +1181,7 @@
         <v>5</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -1227,12 +1198,12 @@
         <v>5</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B11" s="11" t="s">
         <v>10</v>
@@ -1244,16 +1215,16 @@
         <v>5</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="B12" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="11" t="s">
-        <v>20</v>
-      </c>
       <c r="C12" s="11" t="s">
         <v>5</v>
       </c>
@@ -1261,15 +1232,15 @@
         <v>5</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C13" s="11" t="s">
         <v>5</v>
@@ -1278,12 +1249,12 @@
         <v>5</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>11</v>
@@ -1295,7 +1266,7 @@
         <v>5</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -1309,38 +1280,38 @@
       <c r="A16" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B16" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="19"/>
+      <c r="B16" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="22"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="23"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B17" s="16" t="s">
-        <v>93</v>
-      </c>
-      <c r="C17" s="16"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="17"/>
+      <c r="B17" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="C17" s="20"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="21"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B18" s="14" t="s">
+      <c r="B18" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C18" s="14" t="s">
+      <c r="C18" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="D18" s="14" t="s">
+      <c r="D18" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="E18" s="15" t="s">
+      <c r="E18" s="17" t="s">
         <v>1</v>
       </c>
       <c r="G18" s="8"/>
@@ -1357,791 +1328,750 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B19" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C19" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="D19" s="14" t="s">
+      <c r="C19" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="E19" s="15" t="s">
-        <v>58</v>
+      <c r="E19" s="17" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="B20" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="C20" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="D20" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="E20" s="15" t="s">
-        <v>60</v>
+      <c r="C20" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="E20" s="17" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="E21" s="17" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="E22" s="17" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A23" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A25" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B25" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="B21" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="C21" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="D21" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="E21" s="15" t="s">
+      <c r="C25" s="22"/>
+      <c r="D25" s="22"/>
+      <c r="E25" s="23"/>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A26" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B26" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="C26" s="20"/>
+      <c r="D26" s="20"/>
+      <c r="E26" s="21"/>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E27" s="12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D28" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E28" s="12" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A22" s="13" t="s">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A29" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D29" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E29" s="12" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B30" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E30" s="12" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B33" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="B22" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A24" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B24" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="C24" s="18"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="19"/>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A25" s="7" t="s">
+      <c r="C33" s="22"/>
+      <c r="D33" s="22"/>
+      <c r="E33" s="23"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B25" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="C25" s="16"/>
-      <c r="D25" s="16"/>
-      <c r="E25" s="17"/>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
+      <c r="B34" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="C34" s="20"/>
+      <c r="D34" s="20"/>
+      <c r="E34" s="21"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B26" s="11" t="s">
+      <c r="B35" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C26" s="11" t="s">
+      <c r="C35" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="D26" s="11" t="s">
+      <c r="D35" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="E26" s="12" t="s">
+      <c r="E35" s="17" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B27" s="11" t="s">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B36" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C27" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="D27" s="11" t="s">
+      <c r="C36" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D36" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="E27" s="12" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A28" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="B28" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C28" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="D28" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="E28" s="12" t="s">
+      <c r="E36" s="17" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B29" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C29" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D29" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="E29" s="12" t="s">
+    <row r="37" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B37" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C37" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D37" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="E37" s="17" t="s">
         <v>64</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E30" s="5" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A32" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B32" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="C32" s="18"/>
-      <c r="D32" s="18"/>
-      <c r="E32" s="19"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B33" s="16" t="s">
-        <v>91</v>
-      </c>
-      <c r="C33" s="16"/>
-      <c r="D33" s="16"/>
-      <c r="E33" s="17"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B34" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="C34" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="D34" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="E34" s="15" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B35" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="C35" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="D35" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="E35" s="15" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A36" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B36" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="C36" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="D36" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="E36" s="15" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="B37" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="C37" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="D37" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="E37" s="15" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B38" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C38" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D38" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="E38" s="17" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B39" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="B38" s="14" t="s">
+      <c r="C39" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D39" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="E39" s="17" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B40" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="C40" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D40" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="E40" s="17" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C38" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="D38" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="E38" s="15" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B39" s="14" t="s">
+      <c r="B41" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C41" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D41" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="E41" s="17" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="B42" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C39" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="D39" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="E39" s="15" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D40" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E40" s="5" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="6" t="s">
+      <c r="C42" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B42" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="C42" s="18"/>
-      <c r="D42" s="18"/>
-      <c r="E42" s="19"/>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="7" t="s">
+      <c r="B44" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="C44" s="22"/>
+      <c r="D44" s="22"/>
+      <c r="E44" s="23"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B43" s="16" t="s">
-        <v>84</v>
-      </c>
-      <c r="C43" s="16"/>
-      <c r="D43" s="16"/>
-      <c r="E43" s="17"/>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B44" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C44" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D44" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="E44" s="12" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B45" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="C45" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="D45" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="E45" s="12" t="s">
-        <v>71</v>
-      </c>
+      <c r="B45" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="C45" s="20"/>
+      <c r="D45" s="20"/>
+      <c r="E45" s="21"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B46" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C46" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D46" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E46" s="12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B47" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C47" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D47" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E47" s="12" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B48" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C48" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D48" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E48" s="12" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="B46" s="11" t="s">
+      <c r="B49" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C49" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D49" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E49" s="12" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="C46" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="D46" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="E46" s="12" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="B47" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="C47" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="D47" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="E47" s="12" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="9" t="s">
+      <c r="B50" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E50" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B52" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="B48" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C48" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D48" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E48" s="5" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A50" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B50" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="C50" s="18"/>
-      <c r="D50" s="18"/>
-      <c r="E50" s="19"/>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A51" s="7" t="s">
+      <c r="C52" s="22"/>
+      <c r="D52" s="22"/>
+      <c r="E52" s="23"/>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B51" s="16" t="s">
-        <v>90</v>
-      </c>
-      <c r="C51" s="16"/>
-      <c r="D51" s="16"/>
-      <c r="E51" s="17"/>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A52" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B52" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="C52" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="D52" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="E52" s="15" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A53" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B53" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="C53" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="D53" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="E53" s="15" t="s">
-        <v>75</v>
-      </c>
+      <c r="B53" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="C53" s="20"/>
+      <c r="D53" s="20"/>
+      <c r="E53" s="21"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B54" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="C54" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="D54" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="E54" s="15" t="s">
-        <v>76</v>
+        <v>2</v>
+      </c>
+      <c r="B54" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C54" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="D54" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="E54" s="17" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B55" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B55" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="C55" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D55" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="E55" s="17" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B56" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C56" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D56" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="E56" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="I56" s="18"/>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A57" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B57" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C55" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="D55" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="E55" s="15" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="B56" s="4" t="s">
+      <c r="C57" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D57" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="E57" s="17" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A58" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B58" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C56" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D56" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E56" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="I56" s="22"/>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A58" s="6" t="s">
+      <c r="C58" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D58" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="E58" s="17" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A59" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B59" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="C59" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D59" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="E59" s="17" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A60" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D60" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E60" s="5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A62" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B58" s="18" t="s">
+      <c r="B62" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="C62" s="22"/>
+      <c r="D62" s="22"/>
+      <c r="E62" s="23"/>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A63" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B63" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="C63" s="20"/>
+      <c r="D63" s="20"/>
+      <c r="E63" s="21"/>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A64" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B64" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C64" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="D64" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="E64" s="15" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A65" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C58" s="18"/>
-      <c r="D58" s="18"/>
-      <c r="E58" s="19"/>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A59" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B59" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="C59" s="16"/>
-      <c r="D59" s="16"/>
-      <c r="E59" s="17"/>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A60" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B60" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="C60" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="D60" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="E60" s="15" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="3" t="s">
+      <c r="B65" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C65" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D65" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E65" s="15" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B61" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="C61" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="D61" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="E61" s="15" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A62" s="2" t="s">
+      <c r="B66" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C66" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D66" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="E66" s="15" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="B62" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="C62" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="D62" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="E62" s="15" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A63" s="10" t="s">
+      <c r="B67" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C67" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D67" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="E67" s="15" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="B63" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="C63" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="D63" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="E63" s="15" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A64" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="B64" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="C64" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="D64" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="E64" s="15" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="B65" s="4" t="s">
+      <c r="B68" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C68" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D68" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="E68" s="15" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="B69" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C65" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D65" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E65" s="5" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B67" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="C67" s="18"/>
-      <c r="D67" s="18"/>
-      <c r="E67" s="19"/>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A68" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B68" s="16" t="s">
-        <v>94</v>
-      </c>
-      <c r="C68" s="16"/>
-      <c r="D68" s="16"/>
-      <c r="E68" s="17"/>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B69" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="C69" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="D69" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="E69" s="15" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B70" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="C70" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="D70" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="E70" s="15" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B71" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="C71" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="D71" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="E71" s="15" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B72" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C72" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="D72" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="E72" s="15" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A73" s="23" t="s">
-        <v>50</v>
-      </c>
-      <c r="B73" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C73" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D73" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E73" s="5" t="s">
-        <v>97</v>
+      <c r="C69" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D69" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E69" s="5" t="s">
+        <v>93</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="B51:E51"/>
-    <mergeCell ref="B58:E58"/>
-    <mergeCell ref="B59:E59"/>
-    <mergeCell ref="B67:E67"/>
-    <mergeCell ref="B68:E68"/>
-    <mergeCell ref="B32:E32"/>
-    <mergeCell ref="B33:E33"/>
-    <mergeCell ref="B42:E42"/>
-    <mergeCell ref="B43:E43"/>
-    <mergeCell ref="B50:E50"/>
+  <mergeCells count="16">
     <mergeCell ref="B17:E17"/>
-    <mergeCell ref="B24:E24"/>
     <mergeCell ref="B25:E25"/>
+    <mergeCell ref="B26:E26"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="B5:E5"/>
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="B16:E16"/>
+    <mergeCell ref="B33:E33"/>
+    <mergeCell ref="B34:E34"/>
+    <mergeCell ref="B44:E44"/>
+    <mergeCell ref="B45:E45"/>
+    <mergeCell ref="B52:E52"/>
+    <mergeCell ref="B53:E53"/>
+    <mergeCell ref="B62:E62"/>
+    <mergeCell ref="B63:E63"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <tableParts count="8">
+  <tableParts count="7">
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
     <tablePart r:id="rId4"/>
@@ -2149,7 +2079,6 @@
     <tablePart r:id="rId6"/>
     <tablePart r:id="rId7"/>
     <tablePart r:id="rId8"/>
-    <tablePart r:id="rId9"/>
   </tableParts>
 </worksheet>
 </file>
--- a/BACOMADE/DIAGRAMAS/bacomade, diccionario de datos.xlsx
+++ b/BACOMADE/DIAGRAMAS/bacomade, diccionario de datos.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\BACOMADE\BACOMADE\DIAGRAMAS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\vanessa\Tecnología\segundo trimestre\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="101">
   <si>
     <t>int</t>
   </si>
@@ -65,12 +65,6 @@
     <t>varchar(12)</t>
   </si>
   <si>
-    <t>date</t>
-  </si>
-  <si>
-    <t>varchar</t>
-  </si>
-  <si>
     <t>Diccionario de datos: BACOMADE</t>
   </si>
   <si>
@@ -80,9 +74,6 @@
     <t>Nombre_C</t>
   </si>
   <si>
-    <t>varchar(15)</t>
-  </si>
-  <si>
     <t>varchar(10)</t>
   </si>
   <si>
@@ -278,9 +269,6 @@
     <t>Apellidos de la persona a la cual le pertenece la partida requerida</t>
   </si>
   <si>
-    <t>Datos del comprador y del dueño de la partida que se requiere</t>
-  </si>
-  <si>
     <t>Documento de identidad del comprador</t>
   </si>
   <si>
@@ -299,28 +287,46 @@
     <t>FK - de Tbl_Iglesia</t>
   </si>
   <si>
-    <t>FK - de Tbl_Comprador</t>
-  </si>
-  <si>
     <t>FK - de Tbl_Mensajero</t>
   </si>
   <si>
-    <t>FK - de Tbl_Secretaria</t>
+    <t>FK - de Tbl_Forma_Pago</t>
+  </si>
+  <si>
+    <t>ID_Comprador</t>
+  </si>
+  <si>
+    <t>Código con el que se identifica el comprador</t>
+  </si>
+  <si>
+    <t>ID_Secretaria</t>
+  </si>
+  <si>
+    <t>Código con el que se identifica la secretaria</t>
+  </si>
+  <si>
+    <t>Documento_C</t>
   </si>
   <si>
     <t>Documento_S</t>
   </si>
   <si>
-    <t>Documento_C</t>
-  </si>
-  <si>
     <t>Documento de identidad de la secretaria</t>
   </si>
   <si>
-    <t>FK - de Tbl_Forma_Pago</t>
+    <t>Datos del comprador de la partida que se requiere</t>
+  </si>
+  <si>
+    <t>varchar(40)</t>
+  </si>
+  <si>
+    <t>ID_EnvÍo</t>
   </si>
   <si>
     <t>FK - de Tbl_Envío</t>
+  </si>
+  <si>
+    <t>datetime</t>
   </si>
 </sst>
 </file>
@@ -602,6 +608,22 @@
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -716,22 +738,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabla24" displayName="Tabla24" ref="A7:E14" totalsRowShown="0" headerRowDxfId="48" dataDxfId="47">
-  <autoFilter ref="A7:E14"/>
-  <tableColumns count="5">
-    <tableColumn id="1" name="Campo" dataDxfId="46"/>
-    <tableColumn id="2" name="Tipo" dataDxfId="45"/>
-    <tableColumn id="3" name="Permite nulos" dataDxfId="44"/>
-    <tableColumn id="4" name="Identidad" dataDxfId="43"/>
-    <tableColumn id="5" name="Descripción" dataDxfId="42"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabla245" displayName="Tabla245" ref="A18:E23" totalsRowShown="0" headerRowDxfId="41" dataDxfId="40">
-  <autoFilter ref="A18:E23"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabla24" displayName="Tabla24" ref="A7:E16" totalsRowShown="0" headerRowDxfId="15" dataDxfId="48">
+  <autoFilter ref="A7:E16"/>
   <tableColumns count="5">
     <tableColumn id="1" name="Campo" dataDxfId="14"/>
     <tableColumn id="2" name="Tipo" dataDxfId="13"/>
@@ -743,51 +751,9 @@
 </table>
 </file>
 
-<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla2452" displayName="Tabla2452" ref="A27:E31" totalsRowShown="0" headerRowDxfId="39" dataDxfId="38">
-  <autoFilter ref="A27:E31"/>
-  <tableColumns count="5">
-    <tableColumn id="1" name="Campo" dataDxfId="37"/>
-    <tableColumn id="2" name="Tipo" dataDxfId="36"/>
-    <tableColumn id="3" name="Permite nulos" dataDxfId="35"/>
-    <tableColumn id="4" name="Identidad" dataDxfId="34"/>
-    <tableColumn id="5" name="Descripción" dataDxfId="33"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Tabla246" displayName="Tabla246" ref="A35:E42" totalsRowShown="0" headerRowDxfId="32" dataDxfId="31">
-  <autoFilter ref="A35:E42"/>
-  <tableColumns count="5">
-    <tableColumn id="1" name="Campo" dataDxfId="4"/>
-    <tableColumn id="2" name="Tipo" dataDxfId="3"/>
-    <tableColumn id="3" name="Permite nulos" dataDxfId="2"/>
-    <tableColumn id="4" name="Identidad" dataDxfId="1"/>
-    <tableColumn id="5" name="Descripción" dataDxfId="0"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Tabla2468" displayName="Tabla2468" ref="A46:E50" totalsRowShown="0" headerRowDxfId="30" dataDxfId="29">
-  <autoFilter ref="A46:E50"/>
-  <tableColumns count="5">
-    <tableColumn id="1" name="Campo" dataDxfId="28"/>
-    <tableColumn id="2" name="Tipo" dataDxfId="27"/>
-    <tableColumn id="3" name="Permite nulos" dataDxfId="26"/>
-    <tableColumn id="4" name="Identidad" dataDxfId="25"/>
-    <tableColumn id="5" name="Descripción" dataDxfId="24"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Tabla24689" displayName="Tabla24689" ref="A54:E60" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22">
-  <autoFilter ref="A54:E60"/>
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabla245" displayName="Tabla245" ref="A20:E27" totalsRowShown="0" headerRowDxfId="47" dataDxfId="46">
+  <autoFilter ref="A20:E27"/>
   <tableColumns count="5">
     <tableColumn id="1" name="Campo" dataDxfId="9"/>
     <tableColumn id="2" name="Tipo" dataDxfId="8"/>
@@ -799,15 +765,71 @@
 </table>
 </file>
 
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla2452" displayName="Tabla2452" ref="A31:E35" totalsRowShown="0" headerRowDxfId="45" dataDxfId="44">
+  <autoFilter ref="A31:E35"/>
+  <tableColumns count="5">
+    <tableColumn id="1" name="Campo" dataDxfId="43"/>
+    <tableColumn id="2" name="Tipo" dataDxfId="42"/>
+    <tableColumn id="3" name="Permite nulos" dataDxfId="41"/>
+    <tableColumn id="4" name="Identidad" dataDxfId="40"/>
+    <tableColumn id="5" name="Descripción" dataDxfId="39"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Tabla246" displayName="Tabla246" ref="A39:E45" totalsRowShown="0" headerRowDxfId="38" dataDxfId="37">
+  <autoFilter ref="A39:E45"/>
+  <tableColumns count="5">
+    <tableColumn id="1" name="Campo" dataDxfId="36"/>
+    <tableColumn id="2" name="Tipo" dataDxfId="35"/>
+    <tableColumn id="3" name="Permite nulos" dataDxfId="34"/>
+    <tableColumn id="4" name="Identidad" dataDxfId="33"/>
+    <tableColumn id="5" name="Descripción" dataDxfId="32"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Tabla2468" displayName="Tabla2468" ref="A49:E53" totalsRowShown="0" headerRowDxfId="31" dataDxfId="30">
+  <autoFilter ref="A49:E53"/>
+  <tableColumns count="5">
+    <tableColumn id="1" name="Campo" dataDxfId="29"/>
+    <tableColumn id="2" name="Tipo" dataDxfId="28"/>
+    <tableColumn id="3" name="Permite nulos" dataDxfId="27"/>
+    <tableColumn id="4" name="Identidad" dataDxfId="26"/>
+    <tableColumn id="5" name="Descripción" dataDxfId="25"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Tabla24689" displayName="Tabla24689" ref="A57:E61" totalsRowShown="0" headerRowDxfId="24" dataDxfId="23">
+  <autoFilter ref="A57:E61"/>
+  <tableColumns count="5">
+    <tableColumn id="1" name="Campo" dataDxfId="22"/>
+    <tableColumn id="2" name="Tipo" dataDxfId="21"/>
+    <tableColumn id="3" name="Permite nulos" dataDxfId="20"/>
+    <tableColumn id="4" name="Identidad" dataDxfId="19"/>
+    <tableColumn id="5" name="Descripción" dataDxfId="18"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Tabla246810" displayName="Tabla246810" ref="A64:E69" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20">
-  <autoFilter ref="A64:E69"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Tabla246810" displayName="Tabla246810" ref="A65:E69" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
+  <autoFilter ref="A65:E69"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="Campo" dataDxfId="19"/>
-    <tableColumn id="2" name="Tipo" dataDxfId="18"/>
-    <tableColumn id="3" name="Permite nulos" dataDxfId="17"/>
-    <tableColumn id="4" name="Identidad" dataDxfId="16"/>
-    <tableColumn id="5" name="Descripción" dataDxfId="15"/>
+    <tableColumn id="1" name="Campo" dataDxfId="4"/>
+    <tableColumn id="2" name="Tipo" dataDxfId="3"/>
+    <tableColumn id="3" name="Permite nulos" dataDxfId="2"/>
+    <tableColumn id="4" name="Identidad" dataDxfId="1"/>
+    <tableColumn id="5" name="Descripción" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1076,10 +1098,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q69"/>
+  <dimension ref="A1:Q73"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="H37" sqref="H37"/>
+    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="H51" sqref="H51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1095,7 +1117,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A1" s="24" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B1" s="24"/>
       <c r="C1" s="24"/>
@@ -1116,7 +1138,7 @@
         <v>8</v>
       </c>
       <c r="B5" s="22" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C5" s="22"/>
       <c r="D5" s="22"/>
@@ -1127,7 +1149,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="C6" s="20"/>
       <c r="D6" s="20"/>
@@ -1137,183 +1159,189 @@
       <c r="A7" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="E7" s="17" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="12" t="s">
-        <v>55</v>
+      <c r="E8" s="17" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="B9" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="17" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="E9" s="12" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>82</v>
+      <c r="C10" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" s="17" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="B11" s="11" t="s">
+      <c r="A11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="E11" s="12" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C11" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="E11" s="17" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="B12" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="D12" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="E12" s="12" t="s">
-        <v>85</v>
+        <v>32</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="E12" s="17" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="B13" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="D13" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="E13" s="12" t="s">
-        <v>78</v>
+        <v>93</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="E13" s="17" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14" s="4" t="s">
+      <c r="A14" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="E14" s="17" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="11"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
+      <c r="C15" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="E15" s="17" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A17" s="11"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A18" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B16" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="C16" s="22"/>
-      <c r="D16" s="22"/>
-      <c r="E16" s="23"/>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A17" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B17" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="C17" s="20"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="21"/>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B18" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="D18" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="E18" s="17" t="s">
-        <v>1</v>
-      </c>
+      <c r="B18" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="22"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="23"/>
       <c r="G18" s="8"/>
       <c r="H18" s="8"/>
       <c r="I18" s="8"/>
@@ -1327,747 +1355,742 @@
       <c r="Q18" s="8"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B19" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="C19" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="D19" s="16" t="s">
+      <c r="A19" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B19" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="C19" s="20"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="21"/>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B20" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="D20" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="E20" s="17" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B21" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="C21" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="E19" s="17" t="s">
+      <c r="E21" s="17" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A22" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B22" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="C22" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="E22" s="17" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A23" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B23" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D23" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="E23" s="17" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B24" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="E24" s="17" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A20" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="B20" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="C20" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="D20" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="E20" s="17" t="s">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C25" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="E25" s="17" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A26" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="B26" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D26" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="E26" s="17" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A27" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A29" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B29" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C29" s="22"/>
+      <c r="D29" s="22"/>
+      <c r="E29" s="23"/>
+    </row>
+    <row r="30" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B30" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="C30" s="20"/>
+      <c r="D30" s="20"/>
+      <c r="E30" s="21"/>
+    </row>
+    <row r="31" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B31" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C31" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D31" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E31" s="12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B32" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C32" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D32" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E32" s="12" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B33" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C33" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D33" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E33" s="12" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B21" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="C21" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="D21" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="E21" s="17" t="s">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B34" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C34" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D34" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E34" s="12" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B22" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="C22" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="D22" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="E22" s="17" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A23" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A25" s="6" t="s">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B25" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="C25" s="22"/>
-      <c r="D25" s="22"/>
-      <c r="E25" s="23"/>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A26" s="7" t="s">
+      <c r="B37" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" s="22"/>
+      <c r="D37" s="22"/>
+      <c r="E37" s="23"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B26" s="20" t="s">
-        <v>88</v>
-      </c>
-      <c r="C26" s="20"/>
-      <c r="D26" s="20"/>
-      <c r="E26" s="21"/>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
+      <c r="B38" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="C38" s="20"/>
+      <c r="D38" s="20"/>
+      <c r="E38" s="21"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B27" s="11" t="s">
+      <c r="B39" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C27" s="11" t="s">
+      <c r="C39" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="D27" s="11" t="s">
+      <c r="D39" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="E27" s="12" t="s">
+      <c r="E39" s="15" t="s">
         <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B28" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="C28" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="D28" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="E28" s="12" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A29" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="B29" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C29" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="D29" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="E29" s="12" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B30" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C30" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D30" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="E30" s="12" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E31" s="5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B33" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="C33" s="22"/>
-      <c r="D33" s="22"/>
-      <c r="E33" s="23"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B34" s="20" t="s">
-        <v>87</v>
-      </c>
-      <c r="C34" s="20"/>
-      <c r="D34" s="20"/>
-      <c r="E34" s="21"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B35" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="C35" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="D35" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="E35" s="17" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B36" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="C36" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="D36" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="E36" s="17" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A37" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B37" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="C37" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="D37" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="E37" s="17" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="B38" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="C38" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="D38" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="E38" s="17" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="B39" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="C39" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="D39" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="E39" s="17" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B40" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="B40" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C40" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="D40" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="E40" s="17" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B41" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="C41" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="D41" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="E41" s="17" t="s">
-        <v>91</v>
+      <c r="C40" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D40" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E40" s="15" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B41" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C41" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D41" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="E41" s="15" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="B42" s="4" t="s">
+      <c r="A42" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B42" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="C42" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D42" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="E42" s="15" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B43" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C43" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D43" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="E43" s="15" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B44" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C42" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D42" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E42" s="5" t="s">
+      <c r="C44" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D44" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="E44" s="15" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="19" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="6" t="s">
+      <c r="B45" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B44" s="22" t="s">
+      <c r="B47" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="C47" s="22"/>
+      <c r="D47" s="22"/>
+      <c r="E47" s="23"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B48" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="C48" s="20"/>
+      <c r="D48" s="20"/>
+      <c r="E48" s="21"/>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B49" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C49" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D49" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E49" s="12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B50" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C50" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D50" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E50" s="12" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B51" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C51" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D51" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E51" s="12" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="C44" s="22"/>
-      <c r="D44" s="22"/>
-      <c r="E44" s="23"/>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="7" t="s">
+      <c r="B52" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C52" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D52" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E52" s="12" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E53" s="5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B55" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="C55" s="22"/>
+      <c r="D55" s="22"/>
+      <c r="E55" s="23"/>
+    </row>
+    <row r="56" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B45" s="20" t="s">
-        <v>80</v>
-      </c>
-      <c r="C45" s="20"/>
-      <c r="D45" s="20"/>
-      <c r="E45" s="21"/>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="2" t="s">
+      <c r="B56" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="C56" s="20"/>
+      <c r="D56" s="20"/>
+      <c r="E56" s="21"/>
+      <c r="I56" s="18"/>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A57" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B46" s="11" t="s">
+      <c r="B57" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C46" s="11" t="s">
+      <c r="C57" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="D46" s="11" t="s">
+      <c r="D57" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="E46" s="12" t="s">
+      <c r="E57" s="15" t="s">
         <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B47" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="C47" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="D47" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="E47" s="12" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B48" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="C48" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="D48" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="E48" s="12" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A49" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="B49" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="C49" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="D49" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="E49" s="12" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A50" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="B50" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C50" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D50" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E50" s="5" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A52" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B52" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="C52" s="22"/>
-      <c r="D52" s="22"/>
-      <c r="E52" s="23"/>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A53" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B53" s="20" t="s">
-        <v>86</v>
-      </c>
-      <c r="C53" s="20"/>
-      <c r="D53" s="20"/>
-      <c r="E53" s="21"/>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A54" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B54" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="C54" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="D54" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="E54" s="17" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B55" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="C55" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="D55" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="E55" s="17" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B56" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="C56" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="D56" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="E56" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="I56" s="18"/>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A57" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B57" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="C57" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="D57" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="E57" s="17" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B58" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="C58" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="D58" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="E58" s="17" t="s">
-        <v>93</v>
+        <v>43</v>
+      </c>
+      <c r="B58" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C58" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D58" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E58" s="15" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A59" s="3" t="s">
+      <c r="A59" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B59" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="C59" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D59" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="E59" s="15" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A60" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B60" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C60" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D60" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="E60" s="15" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D61" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E61" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A63" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B63" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="C63" s="22"/>
+      <c r="D63" s="22"/>
+      <c r="E63" s="23"/>
+    </row>
+    <row r="64" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B64" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="C64" s="20"/>
+      <c r="D64" s="20"/>
+      <c r="E64" s="21"/>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B65" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C65" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="D65" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="E65" s="17" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A66" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B66" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="C66" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D66" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="E66" s="17" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B67" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="C67" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D67" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="E67" s="17" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="B68" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C68" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D68" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="E68" s="17" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="B59" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="C59" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="D59" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="E59" s="17" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A60" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="B60" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C60" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D60" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E60" s="5" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A62" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B62" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="C62" s="22"/>
-      <c r="D62" s="22"/>
-      <c r="E62" s="23"/>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A63" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B63" s="20" t="s">
-        <v>81</v>
-      </c>
-      <c r="C63" s="20"/>
-      <c r="D63" s="20"/>
-      <c r="E63" s="21"/>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A64" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B64" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="C64" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="D64" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="E64" s="15" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A65" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B65" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="C65" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="D65" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="E65" s="15" t="s">
+      <c r="B69" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D69" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E69" s="5" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B66" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="C66" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="D66" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="E66" s="15" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="B67" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="C67" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="D67" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="E67" s="15" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="B68" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="C68" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="D68" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="E68" s="15" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="B69" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C69" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D69" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E69" s="5" t="s">
-        <v>93</v>
-      </c>
-    </row>
+    <row r="72" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="73" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="B30:E30"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="B5:E5"/>
     <mergeCell ref="B6:E6"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="B33:E33"/>
-    <mergeCell ref="B34:E34"/>
-    <mergeCell ref="B44:E44"/>
-    <mergeCell ref="B45:E45"/>
-    <mergeCell ref="B52:E52"/>
-    <mergeCell ref="B53:E53"/>
-    <mergeCell ref="B62:E62"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="B37:E37"/>
+    <mergeCell ref="B38:E38"/>
+    <mergeCell ref="B47:E47"/>
+    <mergeCell ref="B48:E48"/>
+    <mergeCell ref="B55:E55"/>
+    <mergeCell ref="B56:E56"/>
     <mergeCell ref="B63:E63"/>
+    <mergeCell ref="B64:E64"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
